--- a/ACLX.xlsx
+++ b/ACLX.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E09A7602-951C-4E9A-BAC1-40DA408E9815}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B13CDE7-181E-4602-A6B4-C68341DDC9E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23115" yWindow="1080" windowWidth="23010" windowHeight="19635" activeTab="2" xr2:uid="{B1AB7644-CBC1-40F2-BBEB-86E97F6DFB19}"/>
+    <workbookView xWindow="13160" yWindow="3500" windowWidth="25480" windowHeight="13910" xr2:uid="{B1AB7644-CBC1-40F2-BBEB-86E97F6DFB19}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="33">
   <si>
     <t>Price</t>
   </si>
@@ -273,14 +273,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -631,36 +630,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E43844BD-99A9-4833-BA2B-AD9F931E380E}">
   <dimension ref="B2:L13"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" customWidth="1"/>
+    <col min="2" max="2" width="11.1796875" customWidth="1"/>
     <col min="4" max="4" width="21" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B2" s="9" t="s">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="10"/>
-      <c r="H2" s="11"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="10"/>
       <c r="J2" t="s">
         <v>0</v>
       </c>
@@ -668,24 +667,23 @@
         <v>85.83</v>
       </c>
     </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B3" s="14" t="s">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B3" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="4"/>
-      <c r="H3" s="5"/>
+      <c r="H3" s="4"/>
       <c r="J3" t="s">
         <v>1</v>
       </c>
@@ -696,18 +694,14 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4" t="s">
+      <c r="E4" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="5"/>
+      <c r="H4" s="4"/>
       <c r="J4" t="s">
         <v>2</v>
       </c>
@@ -716,20 +710,17 @@
         <v>4613.84992857</v>
       </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="5"/>
+      <c r="H5" s="4"/>
       <c r="J5" t="s">
         <v>3</v>
       </c>
@@ -741,14 +732,14 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B6" s="6"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="8"/>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B6" s="5"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="7"/>
       <c r="J6" t="s">
         <v>4</v>
       </c>
@@ -759,7 +750,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
       <c r="J7" t="s">
         <v>5</v>
       </c>
@@ -768,7 +759,7 @@
         <v>3964.40792857</v>
       </c>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
       <c r="J9" t="s">
         <v>7</v>
       </c>
@@ -779,7 +770,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
       <c r="J10" t="s">
         <v>8</v>
       </c>
@@ -790,7 +781,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
       <c r="J13" t="s">
         <v>10</v>
       </c>
@@ -811,12 +802,12 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -828,24 +819,22 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC2DB7B8-8B71-43C8-BDFB-0BF901F5C8D8}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
-    </sheetView>
+    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>25</v>
       </c>
@@ -853,39 +842,47 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="14" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
         <v>18</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C6" s="13" t="s">
+    <row r="7" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+      <c r="C7" s="12" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C10" s="13" t="s">
+    <row r="11" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+      <c r="C11" s="12" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C11" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
         <v>32</v>
       </c>
     </row>
